--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-04-using-the-advanced-filter.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-04-using-the-advanced-filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9D6FAE-9A0D-4935-95DB-757300B16CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE3D00-4048-4932-A06A-E5A2E2DE8F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D77D9FF2-12C2-4195-A208-879813459C64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D77D9FF2-12C2-4195-A208-879813459C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced Filter Unique List" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Advanced Filter Unique List'!$B$4:$B$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Advanced Filter with Criteria'!$A$4:$D$28</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'Advanced Filter with Criteria'!$F$4:$I$5</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Advanced Filter with Criteria'!$F$21:$I$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Advanced Filter Unique List'!$F$11</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">'Advanced Filter with Criteria'!$F$10:$I$10</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Advanced Filter with Criteria'!$F$25:$I$25</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Unique List of Sales Reps</t>
+  </si>
+  <si>
+    <t>Criteria</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AEB1D8-2594-4508-B452-06704199F5C9}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -988,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6253FAE-1BB9-48DA-8714-66FBF304BC50}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1006,12 +1009,17 @@
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1044,11 @@
       <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43832</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>43863</v>
       </c>
@@ -1072,8 +1083,11 @@
       <c r="D6" s="17">
         <v>6879</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M6" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43892</v>
       </c>
@@ -1086,8 +1100,23 @@
       <c r="D7" s="14">
         <v>8562</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43923</v>
       </c>
@@ -1100,8 +1129,23 @@
       <c r="D8" s="17">
         <v>9715</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="15">
+        <v>43984</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="17">
+        <v>9624</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43953</v>
       </c>
@@ -1114,8 +1158,23 @@
       <c r="D9" s="14">
         <v>6967</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="14">
+        <v>7139</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43984</v>
       </c>
@@ -1128,8 +1187,23 @@
       <c r="D10" s="17">
         <v>9624</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="15">
+        <v>44229</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="17">
+        <v>9050</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44014</v>
       </c>
@@ -1142,8 +1216,23 @@
       <c r="D11" s="14">
         <v>7591</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="12">
+        <v>44318</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="14">
+        <v>7524</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>44045</v>
       </c>
@@ -1156,8 +1245,21 @@
       <c r="D12" s="17">
         <v>9454</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="12">
+        <v>44441</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="14">
+        <v>8738</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44076</v>
       </c>
@@ -1171,7 +1273,7 @@
         <v>5279</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>44106</v>
       </c>
@@ -1185,7 +1287,7 @@
         <v>9283</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44137</v>
       </c>
@@ -1199,7 +1301,7 @@
         <v>7139</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>44167</v>
       </c>
@@ -1212,7 +1314,6 @@
       <c r="D16" s="17">
         <v>6978</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1228,7 +1329,6 @@
       <c r="D17" s="14">
         <v>7631</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1276,8 +1376,9 @@
       <c r="D20" s="17">
         <v>8351</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="I20" s="3"/>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1292,8 +1393,18 @@
       <c r="D21" s="14">
         <v>7524</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="I21" s="3"/>
+      <c r="F21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -1308,8 +1419,12 @@
       <c r="D22" s="17">
         <v>6295</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="I22" s="3"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1324,8 +1439,12 @@
       <c r="D23" s="14">
         <v>6827</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="I23" s="3"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -1356,8 +1475,18 @@
       <c r="D25" s="14">
         <v>8738</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="I25" s="3"/>
+      <c r="F25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -1372,8 +1501,18 @@
       <c r="D26" s="17">
         <v>6745</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="12">
+        <v>43832</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="14">
+        <v>8199</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -1388,8 +1527,18 @@
       <c r="D27" s="14">
         <v>8241</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="I27" s="3"/>
+      <c r="F27" s="12">
+        <v>43892</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="14">
+        <v>8562</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
@@ -1404,24 +1553,116 @@
       <c r="D28" s="19">
         <v>6017</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="I28" s="3"/>
+      <c r="F28" s="15">
+        <v>44045</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="17">
+        <v>9454</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-      <c r="I29" s="3"/>
+      <c r="F29" s="15">
+        <v>44167</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="17">
+        <v>6978</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="I30" s="3"/>
+      <c r="F30" s="12">
+        <v>44198</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="14">
+        <v>7631</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="15">
+        <v>44229</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="17">
+        <v>9050</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="I32" s="3"/>
+      <c r="F32" s="12">
+        <v>44257</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="14">
+        <v>8278</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="12">
+        <v>44379</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="14">
+        <v>6827</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="15">
+        <v>44410</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="17">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="12">
+        <v>44502</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="14">
+        <v>8241</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
